--- a/Abbaspour/ELNs/Ergänzendes Laborbuch_Kinetik_1_afterSubmission.xlsx
+++ b/Abbaspour/ELNs/Ergänzendes Laborbuch_Kinetik_1_afterSubmission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\Dropbox\Thesis_ELnaz\11 Finale Codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A65703C5-8672-4B96-8E3D-6C53680AED72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAA821C-C0DA-44EB-928F-E45455E1E6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="5" xr2:uid="{0DC943DD-3D35-4159-B445-048AE8071ED3}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{0DC943DD-3D35-4159-B445-048AE8071ED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Substances and Paramteres" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,7 +933,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1231,23 +1231,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD175E90-F87B-46BB-AD28-E51C0E56DD62}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.9">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
@@ -1257,7 +1257,7 @@
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1265,19 +1265,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>4.6243132629629627E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>31</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1499,7 +1499,7 @@
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1512,7 +1512,7 @@
       <c r="F16" s="18"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -1524,7 +1524,7 @@
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1536,7 +1536,7 @@
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>39</v>
       </c>
@@ -1587,7 +1587,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.5703125" style="10" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
@@ -1596,13 +1596,13 @@
     <col min="5" max="16384" width="11.5703125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>40</v>
       </c>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
@@ -1611,7 +1611,7 @@
       <c r="D2" s="8"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="41" t="s">
         <v>42</v>
@@ -1619,7 +1619,7 @@
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>43</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>45</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>375.15</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>46</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>48</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>513.61900000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>49</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>51</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>-4356</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>52</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="187.15">
+    <row r="12" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>55</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>59</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>63</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>647.14</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>48</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>513.61900000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>64</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>22064000</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>65</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>5.595E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>66</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>67</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>68</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>69</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>70</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>71</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>1.14199E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>72</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>73</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>74</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>75</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>76</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>77</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>78</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>79</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>80</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>81</v>
       </c>
@@ -2056,21 +2056,21 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="41" t="s">
         <v>42</v>
@@ -2078,7 +2078,7 @@
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>49</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>83</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>85</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.9">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>87</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.9">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>89</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>91</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>92</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>94</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>96</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>98</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>100</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>100</v>
       </c>
@@ -2276,18 +2276,18 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.9">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>105</v>
       </c>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>106</v>
       </c>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>107</v>
       </c>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>108</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>109</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>110</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>112</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>115</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>116</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>117</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>119</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>7.9999999999999996E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>120</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>122</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>123</v>
       </c>
@@ -2456,13 +2456,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>124</v>
       </c>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>126</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>128</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>129</v>
       </c>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>130</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>131</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>132</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>133</v>
       </c>
@@ -2567,11 +2567,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5280EC7-65F1-4C9E-AAB8-4C1B13CCA24E}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
@@ -2580,7 +2580,7 @@
     <col min="7" max="7" width="18.7109375" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>135</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>24</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>23</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="28" t="s">
         <v>20</v>
@@ -2670,7 +2670,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="29" t="s">
         <v>21</v>
@@ -2685,7 +2685,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F6" s="38">
         <v>4</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" s="38">
         <v>5</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" s="38">
         <v>6</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" s="38">
         <v>7</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10" s="38">
         <v>8</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="38">
         <v>9</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" s="38">
         <v>10</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13" s="38">
         <v>11</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="38">
         <v>12</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="38">
         <v>13</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" s="38">
         <v>14</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="6:7">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="38">
         <v>15</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="6:7">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="38">
         <v>16</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="6:7">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="38">
         <v>17</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="6:7">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="38">
         <v>18</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="6:7">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="38">
         <v>19</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="6:7">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F22" s="38">
         <v>20</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="6:7">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F23" s="38">
         <v>21</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="6:7">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F24" s="38">
         <v>22</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="6:7">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F25" s="38">
         <v>23</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="6:7">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F26" s="38">
         <v>24</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="6:7">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27" s="38">
         <v>25</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="6:7">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28" s="38">
         <v>26</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="6:7">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F29" s="38">
         <v>27</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="6:7">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" s="38">
         <v>28</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="6:7">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F31" s="38">
         <v>29</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="6:7">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F32" s="38">
         <v>30</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="6:7">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="38">
         <v>31</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="6:7">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" s="38">
         <v>32</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="6:7">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" s="38">
         <v>33</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="6:7">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F36" s="38">
         <v>34</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="6:7">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F37" s="38">
         <v>35</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="6:7">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F38" s="38">
         <v>36</v>
       </c>
